--- a/Apollo - Copy.xlsx
+++ b/Apollo - Copy.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/mogilipuri-varshitha_mogilipuri-varshitha_capgemini_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/mogilipuri-varshitha_mogilipuri-varshitha_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="8_{B4D4B0EC-82AC-4EDE-81E8-C53EC90D109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA682FB2-1EDE-4661-9210-1F4329B10ACF}"/>
+  <xr:revisionPtr revIDLastSave="1124" documentId="8_{B4D4B0EC-82AC-4EDE-81E8-C53EC90D109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D2C3405-729B-4B8C-9964-2684998D329C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{8A1195DE-6C6F-4B2F-B222-FF83BEBB4B65}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="5" xr2:uid="{8A1195DE-6C6F-4B2F-B222-FF83BEBB4B65}"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCases" sheetId="3" r:id="rId3"/>
-    <sheet name="Defect" sheetId="4" r:id="rId4"/>
-    <sheet name="Summary" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Scenario" sheetId="2" r:id="rId3"/>
+    <sheet name="TestCases" sheetId="3" r:id="rId4"/>
+    <sheet name="Defect" sheetId="9" r:id="rId5"/>
+    <sheet name="Scenario1" sheetId="8" r:id="rId6"/>
+    <sheet name="RTM" sheetId="5" r:id="rId7"/>
+    <sheet name="Summary" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="328">
   <si>
     <t>Issue Type</t>
   </si>
@@ -138,11 +141,6 @@
     <t>REQ_Apollo24/7_BuyMedicine_03</t>
   </si>
   <si>
-    <t>1. Add item and proceed to checkout
-2. Verify cart summary is displayed
-3. Confirm checkout page loads successfully</t>
-  </si>
-  <si>
     <t>REQ_Apollo24/7_AddtoCart_04</t>
   </si>
   <si>
@@ -155,66 +153,12 @@
     <t>To verify category-based and generic keyword search results</t>
   </si>
   <si>
-    <t>1.Open the Browser     
-2.Navigate to https://www.apollopharmacy.in
-3. Click on Buy Medicine 
-4.Click on Search bar
-5.Search with medicine name
-6.All related Products to be displayed</t>
-  </si>
-  <si>
-    <t>1.Open the Browser     
-2.Navigate to https://www.apollopharmacy.in
-3. Click on Buy Medicine 
-4.Click on Search bar
-5.Search with InValid medicine name
-or empty field 
-6.No related Products to be displayed</t>
-  </si>
-  <si>
-    <t>1.Open the Browser     
-2.Navigate to https://www.apollopharmacy.in
-3. Click on Buy Medicine 
-4.Click on Search bar1. Search using category keyword (e.g., “pain relief”)
-5. Verify category results match
-6. Confirm irrelevant products are not shown</t>
-  </si>
-  <si>
     <t xml:space="preserve">To validate adding valid/invalid items to cart </t>
   </si>
   <si>
-    <t>1.Open the Browser     
-2.Navigate to https://www.apollopharmacy.in1.Add valid product to cart
-2. Add invalid product
-3. Add multiple quantities
-4. Remove product and check cart updates
-5. Verify total price changes accordingly</t>
-  </si>
-  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
-    <r>
-      <t>Test Scenario IDRequirement IDTest Scenario DescriptionType of TestingPossible No. of Test CasesTest Case Details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS_Apollo_Search_01REQ_Apollo_Search_01To verify search functionality with valid medicine nameFunctionality Testing21. Validate search with exact medicine name</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Validate search with case variationsTS_Apollo_Search_02REQ_Apollo_Search_02To verify search functionality with invalid medicine nameFunctionality Testing11. Validate search with completely invalid medicine nameTS_Apollo_Search_03REQ_Apollo_Search_03To verify search with partial medicine name and auto-suggestionsFunctionality Testing21. Validate auto-suggestions for partial name</t>
-  </si>
-  <si>
-    <t>2. Validate selecting suggestion updates resultsTS_Apollo_Search_04REQ_Apollo_Search_04To verify search with empty inputNegative Testing11. Validate that search does not execute and shows appropriate messageTS_Apollo_Search_05REQ_Apollo_Search_05To verify search while offlineFunctionality &amp; Usability11. Validate that “No Internet Connection” message is displayed</t>
-  </si>
-  <si>
     <t>Cart Functionality</t>
   </si>
   <si>
@@ -227,24 +171,9 @@
     <t xml:space="preserve"> I want search with valid medicine name so that all the medicines will displayed related to the search</t>
   </si>
   <si>
-    <t xml:space="preserve"> I want to search with Invalid medicine name so that no medicines will be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want to Search with a partial medicine name such as "Para" and confirm that auto-suggestions appear with matching items.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I want to Search with empty inputs so that search should not execute or no medicines will be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve"> I want to Search while offline so that it displays "No Internet Connections"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want to Search with category keywords so that related category products should be shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want to Search with only special characters so that the item you searched could not be found</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I want to Search using numeric input like "500mg"so  that products with that dosage are displayed.</t>
   </si>
   <si>
@@ -258,9 +187,6 @@
   </si>
   <si>
     <t>I want to Add Valid items to the cart so that products should be displayed in the cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I want to Remove an item from the cart so that Item is removed and cart updates accordingly</t>
   </si>
   <si>
     <t xml:space="preserve"> As a  user I want to click on cart so that I can view all the items in the cart</t>
@@ -471,9 +397,6 @@
 </t>
   </si>
   <si>
-    <t>Medicine name: “Paracetamol”</t>
-  </si>
-  <si>
     <t>Correct product details displayed</t>
   </si>
   <si>
@@ -506,9 +429,6 @@
 3. Click search</t>
   </si>
   <si>
-    <t>Generic name: “Acetaminophen”</t>
-  </si>
-  <si>
     <t xml:space="preserve">TS_BuyMedicine_Search_02
 </t>
   </si>
@@ -563,9 +483,6 @@
   </si>
   <si>
     <t>Validate search with generic keywords</t>
-  </si>
-  <si>
-    <t>Keyword: “Medicine</t>
   </si>
   <si>
     <t>Generic keyword results displayed</t>
@@ -713,49 +630,16 @@
     <t>Module Name</t>
   </si>
   <si>
-    <t>Defect Summary</t>
-  </si>
-  <si>
-    <t>Defect Priority</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Buy Medicines</t>
   </si>
   <si>
-    <t>Search with special characters</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search with Invalid medicine name </t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>Search with out any medicine name or any input</t>
-  </si>
-  <si>
-    <t>1.click on Buy Medicines
-2.Buy Medicines page should be displayed</t>
-  </si>
-  <si>
     <t>user has to beHome Page</t>
   </si>
   <si>
     <t>Test Whether the page is loaded or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. To Validate search with valid medicine name 
-2. To validate  products matched with the input
-3.To validate Search by generic/modules  </t>
   </si>
   <si>
     <t xml:space="preserve">To verify search functionality with valid input </t>
@@ -784,12 +668,6 @@
 2. Verify displayed products belong to category</t>
   </si>
   <si>
-    <t>1. N
-avigate to search bar
-2. Enter “Pain relief”
-3. Click search</t>
-  </si>
-  <si>
     <t>1. Navigate to search 
 2. Enter generic keyword
 3. Click search</t>
@@ -845,13 +723,517 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>BR_ID</t>
+  </si>
+  <si>
+    <t>TR_ID</t>
+  </si>
+  <si>
+    <t>TS_ID</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DR_ID</t>
+  </si>
+  <si>
+    <t>TC_Apollo24/7_BuyMedicinese_01</t>
+  </si>
+  <si>
+    <t>DF_001</t>
+  </si>
+  <si>
+    <t>DF_002</t>
+  </si>
+  <si>
+    <t>DF_003</t>
+  </si>
+  <si>
+    <t>TEST EXECUTION SUMMARY</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Executed</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Complition Percentage</t>
+  </si>
+  <si>
+    <t>TS_Apollo24/7_AddtoCart_04</t>
+  </si>
+  <si>
+    <t>TS_Apollo24/7_AddtoCart_05</t>
+  </si>
+  <si>
+    <t>TR_BuyMedicine_Search_01</t>
+  </si>
+  <si>
+    <t>TR_BuyMedicine_Search_02</t>
+  </si>
+  <si>
+    <t>TR_BuyMedicine_Search_03</t>
+  </si>
+  <si>
+    <t>TR_Apollo24/7_AddtoCart_04</t>
+  </si>
+  <si>
+    <t>TR_Apollo24/7_AddtoCart_05</t>
+  </si>
+  <si>
+    <t>Apollo24/7</t>
+  </si>
+  <si>
+    <t>1. Navigate to search bar
+2. Enter “Pain relief”
+3. Click search</t>
+  </si>
+  <si>
+    <t>1.Open Apollo24/7 website
+ 2.Navigate to Buy Medicines
+2.Buy Medicines page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to remove an item from cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to search with products matched with the input</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to Search by generic/modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to Search with special Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to Search with invalid text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to Search with category keyword</t>
+  </si>
+  <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Search Functionality</t>
+  </si>
+  <si>
+    <t>US_ID_1</t>
+  </si>
+  <si>
+    <t>As a user, I want to click on Buy Medicines in Apollo 24/7 so that I can view all the medicines.</t>
+  </si>
+  <si>
+    <t>1. User should be able to navigate to the medicines page by clicking "Buy Medicines".</t>
+  </si>
+  <si>
+    <t>2. All available medicines should be displayed on the page.</t>
+  </si>
+  <si>
+    <t>3. Page should load without errors.</t>
+  </si>
+  <si>
+    <t>US_ID_2</t>
+  </si>
+  <si>
+    <t>US_ID_3</t>
+  </si>
+  <si>
+    <t>US_ID_4</t>
+  </si>
+  <si>
+    <t>US_ID_5</t>
+  </si>
+  <si>
+    <t>US_ID_6</t>
+  </si>
+  <si>
+    <t>US_ID_7</t>
+  </si>
+  <si>
+    <t>US_ID_8</t>
+  </si>
+  <si>
+    <t>US_ID_9</t>
+  </si>
+  <si>
+    <t>As a user, I want to click on Buy Medicines in Apollo 24/7 
+so that I can view all the medicines.</t>
+  </si>
+  <si>
+    <t>1. User should be able to navigate to the medicines page by clicking 'Buy Medicines'.
+2. All available medicines should be displayed on the page.
+3. Page should load without errors.</t>
+  </si>
+  <si>
+    <t>As a user, I want to search with a valid medicine name 
+so that all the medicines related to the search are displayed.</t>
+  </si>
+  <si>
+    <t>1. Search should return medicines matching the entered name.
+2. Results should include all relevant products.
+3. No unrelated products should appear.</t>
+  </si>
+  <si>
+    <t>As a user, I want to search with products matched 
+with the input.</t>
+  </si>
+  <si>
+    <t>1. Search should match exact and partial keywords.
+2. Display relevant products only.
+3. Handle case sensitivity properly.</t>
+  </si>
+  <si>
+    <t>1. Search should allow generic names.
+2. Display all medicines under that generic.
+3. No missing results for valid generics.</t>
+  </si>
+  <si>
+    <t>1. Empty search should not trigger results.
+2. Display a message like 'Please enter a search term'.</t>
+  </si>
+  <si>
+    <t>1. System should handle special characters gracefully.
+2. No crash or error should occur.
+3. Display 'No results found' if invalid.</t>
+  </si>
+  <si>
+    <t>1. Invalid text should return 'No results found'.
+2. No irrelevant products should appear.
+3. System should not break.</t>
+  </si>
+  <si>
+    <t>US_ID_10</t>
+  </si>
+  <si>
+    <t>As a user, I want to click on cart 
+so that I can view all the items in the cart.</t>
+  </si>
+  <si>
+    <t>1. Clicking cart should open cart page.
+2. All added items should be displayed.
+3. Page should load without errors.</t>
+  </si>
+  <si>
+    <t>US_ID_11</t>
+  </si>
+  <si>
+    <t>As a user, I want to add valid items to the cart
+ so that products should be displayed in the cart.</t>
+  </si>
+  <si>
+    <t>1. Adding an item should reflect in cart.
+2. Cart should show correct product details.
+3. No invalid items should be added.</t>
+  </si>
+  <si>
+    <t>US_ID_12</t>
+  </si>
+  <si>
+    <t>As a user, I want to add multiple quantities of the same item 
+so that quantity updates correctly in the cart.</t>
+  </si>
+  <si>
+    <t>1. Quantity should update accurately.
+2. Price should adjust based on quantity.
+3. No duplicate entries for same item.</t>
+  </si>
+  <si>
+    <t>US_ID_13</t>
+  </si>
+  <si>
+    <t>1. Adding different items should update total price.
+2. Cart should show all items distinctly.
+3. No incorrect price calculation.</t>
+  </si>
+  <si>
+    <t>US_ID_14</t>
+  </si>
+  <si>
+    <t>1. Removing item should update cart immediately.
+2. Total price should adjust.
+3. No leftover data of removed item.</t>
+  </si>
+  <si>
+    <t>US_ID_15</t>
+  </si>
+  <si>
+    <t>1. Cart summary should show total items and price.
+2. Summary should update dynamically.
+3. No missing details in summary.</t>
+  </si>
+  <si>
+    <t>As a user, I want to search 
+with special characters.</t>
+  </si>
+  <si>
+    <t>As a user, I want to add
+ different items and price changes accordingly.</t>
+  </si>
+  <si>
+    <t>As a user, I want to remove
+ an item from the cart.</t>
+  </si>
+  <si>
+    <t>As a user, I want to validate 
+cart summary is displayed.</t>
+  </si>
+  <si>
+    <t>As a user, I want to search
+ by generic/modules.</t>
+  </si>
+  <si>
+    <t>As a user, I want to search with empty inputs 
+so that search should
+ not execute or no medicines 
+will be displayed.</t>
+  </si>
+  <si>
+    <t>As a user, I want to 
+search with invalid text.</t>
+  </si>
+  <si>
+    <t>1. To Validate search with valid medicine name 
+2. To validate  products matched with the input
+3.To validate Search by generic name</t>
+  </si>
+  <si>
+    <t>Generic name: “Paracetamol”</t>
+  </si>
+  <si>
+    <t>Medicine name: “Dolo650”</t>
+  </si>
+  <si>
+    <t>Keyword: “Medicine/pain relief tablet"</t>
+  </si>
+  <si>
+    <t>To validate search withgeneric keywords medicines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Search using generic keyword
+2. Display products matching to the keyword.
+</t>
+  </si>
+  <si>
+    <t>To validate category
+ results match</t>
+  </si>
+  <si>
+    <t>1.When I click on category or browse by health conditions
+2.search related products should isplay</t>
+  </si>
+  <si>
+    <t>Post Codition</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>User remains on the Buy Medicines page with all products displayed.</t>
+  </si>
+  <si>
+    <t>Search results remain visible; user can interact with product listings.</t>
+  </si>
+  <si>
+    <t>Generic search results remain displayed for further interaction.</t>
+  </si>
+  <si>
+    <t>Error message remains visible; user can retry search.</t>
+  </si>
+  <si>
+    <t>Prompt message remains visible; user can enter a valid search term.</t>
+  </si>
+  <si>
+    <t>Correct error message remains displayed for invalid searches.</t>
+  </si>
+  <si>
+    <t>Category-based results remain displayed for user interaction.</t>
+  </si>
+  <si>
+    <t>Filtered category results remain displayed for user interaction.</t>
+  </si>
+  <si>
+    <t>Generic keyword results remain displayed for user interaction.</t>
+  </si>
+  <si>
+    <t>Cart is updated; user remains on product page or cart page.</t>
+  </si>
+  <si>
+    <t>Cart reflects all added products; user can proceed to checkout.</t>
+  </si>
+  <si>
+    <t>Cart shows updated total price; user can continue shopping or checkout.</t>
+  </si>
+  <si>
+    <t>Cart displays added item; user can remove or proceed to checkout.</t>
+  </si>
+  <si>
+    <t>Cart summary remains visible with correct details for checkout.</t>
+  </si>
+  <si>
+    <t>BR_Apollo24/7_FindDoctors_05</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Build Version</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Buy Medicines (v3.0)</t>
+  </si>
+  <si>
+    <t>1. Navigate to Buy Medicines page
+2. Enter '@@@###' in search bar
+3. Click Search</t>
+  </si>
+  <si>
+    <t>Varshitha</t>
+  </si>
+  <si>
+    <t>10-11-2025</t>
+  </si>
+  <si>
+    <t>To Be Resolved</t>
+  </si>
+  <si>
+    <t>Windows 11, Chrome/Edge</t>
+  </si>
+  <si>
+    <t>1. Navigate to Buy Medicines page
+2. Enter 'xyzabc' in search bar
+3. Click Search</t>
+  </si>
+  <si>
+    <t>1. Navigate to Buy Medicines page
+2. Leave search bar empty
+3. Click Search</t>
+  </si>
+  <si>
+    <t>The system does not handle special characters properly,
+ causing unexpected behavior or no error message.</t>
+  </si>
+  <si>
+    <t>The system does not return
+ proper error message for invalid text input.</t>
+  </si>
+  <si>
+    <t>The system executes search even
+ when input is blank, instead of prompting user.</t>
+  </si>
+  <si>
+    <t>System should display
+ 'No results found'</t>
+  </si>
+  <si>
+    <t>System should display 
+'Please enter a search term'</t>
+  </si>
+  <si>
+    <t>System should display 
+'No results found' or a 
+proper error message</t>
+  </si>
+  <si>
+    <t>System displays incorrect
+ results or crashes</t>
+  </si>
+  <si>
+    <t>System displays unrelated 
+products or no message</t>
+  </si>
+  <si>
+    <t>System displays random 
+products or no message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with special characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with invalid medicine name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with empty input </t>
+  </si>
+  <si>
+    <t>DF001</t>
+  </si>
+  <si>
+    <t>DF002</t>
+  </si>
+  <si>
+    <t>DF003</t>
+  </si>
+  <si>
+    <t>Defect Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,8 +1298,30 @@
       <name val="Candara"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -968,18 +1372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -990,8 +1382,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1057,11 +1467,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1082,7 +1523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,17 +1550,82 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7174A4-035C-48BA-B3D5-6B143BA6ACA2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1481,7 +1986,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -1495,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1506,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -1517,7 +2022,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -1528,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1539,7 +2044,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1550,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1561,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1572,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1583,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1594,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1602,10 +2107,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>18</v>
@@ -1613,10 +2118,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -1627,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1638,7 +2143,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1649,7 +2154,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -1660,7 +2165,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1671,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1682,7 +2187,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -1695,184 +2200,426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94715FE3-94AC-43C4-B688-E026FE3EAC7B}">
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600EEB3F-8E87-4AC7-9200-9F0CA2DE0BB1}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="79" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="39.08984375" customWidth="1"/>
-    <col min="7" max="7" width="38.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" customWidth="1"/>
+    <col min="4" max="4" width="34.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" hidden="1">
+      <c r="A1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" hidden="1">
+      <c r="A2" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" hidden="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="87">
+      <c r="A6" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72.5">
+      <c r="A7" s="37"/>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58">
+      <c r="A8" s="37"/>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="58">
+      <c r="A9" s="37"/>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72.5">
+      <c r="A10" s="37"/>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="58">
+      <c r="A11" s="37"/>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="58">
+      <c r="A12" s="37"/>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="58">
+      <c r="A13" s="37"/>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.5">
+      <c r="A14" s="37"/>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.5">
+      <c r="A15" s="37"/>
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="58">
+      <c r="A16" s="37"/>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="58">
+      <c r="A17" s="37"/>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="58">
+      <c r="A18" s="37"/>
+      <c r="B18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="58">
+      <c r="A19" s="37"/>
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="58">
+      <c r="A20" s="37"/>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A20"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94715FE3-94AC-43C4-B688-E026FE3EAC7B}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="35.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="39.08984375" customWidth="1"/>
     <col min="8" max="8" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="97" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="101.5">
-      <c r="A3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="72.5">
+      <c r="A3" s="39"/>
+      <c r="B3" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="106" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="131.5" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="131.5" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="G5" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="91" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="91" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
+      <c r="G6" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="G7" s="10"/>
+      <c r="B7" s="42"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="G8" s="10"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="G9" s="10"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>45</v>
-      </c>
+      <c r="B9" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1880,12 +2627,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66820398-BBA0-4619-AEA8-4C1818F063DB}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="E1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1896,526 +2643,624 @@
     <col min="4" max="4" width="19.26953125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" customWidth="1"/>
-    <col min="10" max="10" width="26.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.6328125" customWidth="1"/>
-    <col min="12" max="12" width="21.1796875" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" customWidth="1"/>
+    <col min="7" max="9" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" customWidth="1"/>
+    <col min="12" max="12" width="26.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="78">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="78">
+      <c r="A1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="104" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" ht="101" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="93" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="104" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="D4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="F4" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="H4" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="79.5" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="89.5" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="C6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-    </row>
-    <row r="3" spans="1:13" ht="101" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="H6" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="91.5" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="H7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="114.5" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="G8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="72.5" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="82.5" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="93" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="F10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="106" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="79.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="85" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="89.5" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="91.5" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="H12" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="80" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="75.5" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="97" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="114.5" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="H15" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="77" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="72.5" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="E16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="82.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="H16" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="74.5" customHeight="1">
+      <c r="A17" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="106" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="85" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="E17" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="80" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="H17" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="75.5" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="97" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="77" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="74.5" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2424,93 +3269,388 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D982DC-4C45-44D7-9F11-EE25BFA2372F}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E010A9-F20C-4DE6-8952-98F621BA542B}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" customWidth="1"/>
+    <col min="5" max="5" width="30.90625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" customWidth="1"/>
+    <col min="14" max="14" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.5" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:14" s="43" customFormat="1" ht="36" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="58">
+      <c r="A3" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.5">
+      <c r="A4" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.5">
+      <c r="A5" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EF5E6-5D44-41E2-AC32-B93EBA22C219}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="102.5" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="47">
+        <v>3</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100.5" customHeight="1">
+      <c r="A3" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="47">
+        <v>4</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="141" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="47">
+        <v>3</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="111" customHeight="1">
+      <c r="A5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="47">
+        <v>3</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="33.5" customHeight="1">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29.5" customHeight="1">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>182</v>
+    </row>
+    <row r="6" spans="1:7" ht="94" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="47">
+        <v>2</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2518,16 +3658,528 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A52632-0499-4866-9C23-E8D087633823}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA7785-DA73-4751-A291-9A34AF6BCD0C}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="12" max="12" width="0.36328125" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="32"/>
+      <c r="B5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="32"/>
+      <c r="B6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="32"/>
+      <c r="B7" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="32"/>
+      <c r="B8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A4:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
